--- a/moyusi/Keywords/Web/业绩模块-带客数业绩.xlsx
+++ b/moyusi/Keywords/Web/业绩模块-带客数业绩.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="116">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
   </si>
   <si>
     <t>if结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-“业绩”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -232,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>el-collapse-item__header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>if_文本包含</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,7 +263,218 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>el-dialog__body</t>
+    <t>el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[text()='十一月']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-十一月按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-门店业绩输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[text()='编辑']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上滑动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[4]/div/div[2]/div/div[2]/div/button[2]/span</t>
+  </si>
+  <si>
+    <t>输入_classname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>else</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='el-button submit el-button--default']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第一个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入_classname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第二个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第三个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第三个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下滑动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第四个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第四个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第五个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第五个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-提交按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_className</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第六个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第六个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第七个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第七个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第八个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第八个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第九个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第九个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第十个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第十个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第十一个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第十一个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动屏幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_文本包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第十二个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第十二个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第十三个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第十三个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第十四个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第十四个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第十五个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第十五个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-带客数业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动屏幕-向上滑动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点_文本存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑业绩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -279,210 +482,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[text()='十一月']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-十一月按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-门店业绩输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击_xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[text()='编辑']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向上滑动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[4]/div/div[2]/div/div[2]/div/button[2]/span</t>
-  </si>
-  <si>
-    <t>输入_classname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>else</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class='el-button submit el-button--default']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第一个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动屏幕-向下滑动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入_classname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第二个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第三个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第三个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向下滑动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第四个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第四个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第五个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第五个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-提交按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击_className</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第六个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第六个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第七个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第七个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第八个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第八个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第九个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第九个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第十个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第十个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第十一个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第十一个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动屏幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if_文本包含</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第十二个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第十二个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第十三个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第十三个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第十四个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第十四个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第十五个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第十五个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-带客数业绩</t>
+    <t>门店名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-门店名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -617,6 +625,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -901,7 +910,7 @@
   <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
+      <selection activeCell="A120" sqref="A120:XFD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -984,26 +993,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>49</v>
+    <row r="5" spans="1:8" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="9">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="8" t="s">
@@ -1011,170 +1019,173 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:8" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9">
-        <v>3000</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="10"/>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="15"/>
+      <c r="D13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="D14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="9">
-        <v>3000</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="D15" s="21" t="s">
-        <v>33</v>
-      </c>
+      <c r="B15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="21"/>
       <c r="E15" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="15"/>
       <c r="D16" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="16"/>
+    </row>
+    <row r="17" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="D18" s="21" t="s">
-        <v>38</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="14">
+        <v>3</v>
+      </c>
+      <c r="D18" s="21"/>
       <c r="E18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>38</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
@@ -1190,18 +1201,15 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>49</v>
+      <c r="A20" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="14">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -1219,305 +1227,305 @@
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>20</v>
+      <c r="A22" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="C22" s="14">
+        <v>4</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="14" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="9">
-        <v>1000</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="10"/>
+    <row r="23" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="14">
+        <v>4</v>
+      </c>
+      <c r="D23" s="21">
+        <v>9999</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="14">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="14" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="14">
-        <v>4</v>
-      </c>
-      <c r="D25" s="21">
-        <v>9999</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="16"/>
+    <row r="25" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>52</v>
+      <c r="A26" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>20</v>
+      <c r="A28" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="14">
+        <v>5</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="C30" s="14">
+        <v>5</v>
+      </c>
+      <c r="D30" s="21">
+        <v>9999</v>
+      </c>
       <c r="E30" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="14">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="14">
-        <v>5</v>
-      </c>
-      <c r="D32" s="21">
-        <v>9999</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="16"/>
+    <row r="32" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>52</v>
+      <c r="A33" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>20</v>
+      <c r="A35" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="14" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>56</v>
-      </c>
+    <row r="36" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="14">
+        <v>6</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C37" s="14">
         <v>6</v>
       </c>
-      <c r="D37" s="21"/>
+      <c r="D37" s="21">
+        <v>9999</v>
+      </c>
       <c r="E37" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="14">
-        <v>6</v>
-      </c>
-      <c r="D38" s="21">
-        <v>9999</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D38" s="21"/>
       <c r="E38" s="14" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>52</v>
+      <c r="A39" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>56</v>
-      </c>
+    </row>
+    <row r="41" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C42" s="14">
         <v>7</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C43" s="14">
         <v>7</v>
@@ -1526,26 +1534,26 @@
         <v>9999</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B45" s="9">
         <v>2000</v>
@@ -1561,47 +1569,47 @@
         <v>20</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C48" s="14">
         <v>8</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C49" s="14">
         <v>8</v>
@@ -1610,26 +1618,26 @@
         <v>9999</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F49" s="16"/>
     </row>
     <row r="50" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="16"/>
     </row>
     <row r="51" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B51" s="9">
         <v>2000</v>
@@ -1645,47 +1653,47 @@
         <v>20</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F52" s="16"/>
     </row>
     <row r="53" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C54" s="14">
         <v>9</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F54" s="16"/>
     </row>
     <row r="55" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C55" s="14">
         <v>9</v>
@@ -1694,26 +1702,26 @@
         <v>9999</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F55" s="16"/>
     </row>
     <row r="56" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F56" s="16"/>
     </row>
     <row r="57" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B57" s="9">
         <v>2000</v>
@@ -1729,47 +1737,47 @@
         <v>20</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F58" s="16"/>
     </row>
     <row r="59" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C60" s="14">
         <v>10</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C61" s="14">
         <v>10</v>
@@ -1778,26 +1786,26 @@
         <v>9999</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F61" s="16"/>
     </row>
     <row r="62" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F62" s="16"/>
     </row>
     <row r="63" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B63" s="9">
         <v>2000</v>
@@ -1813,47 +1821,47 @@
         <v>20</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F64" s="16"/>
     </row>
     <row r="65" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C66" s="14">
         <v>11</v>
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F66" s="16"/>
     </row>
     <row r="67" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C67" s="14">
         <v>11</v>
@@ -1862,26 +1870,26 @@
         <v>9999</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F68" s="16"/>
     </row>
     <row r="69" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B69" s="9">
         <v>2000</v>
@@ -1897,47 +1905,47 @@
         <v>20</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F70" s="16"/>
     </row>
     <row r="71" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C72" s="14">
         <v>12</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F72" s="16"/>
     </row>
     <row r="73" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C73" s="14">
         <v>12</v>
@@ -1946,26 +1954,26 @@
         <v>9999</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F73" s="16"/>
     </row>
     <row r="74" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F74" s="16"/>
     </row>
     <row r="75" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B75" s="9">
         <v>2000</v>
@@ -1981,47 +1989,47 @@
         <v>20</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F76" s="16"/>
     </row>
     <row r="77" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C78" s="14">
         <v>13</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F78" s="16"/>
     </row>
     <row r="79" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C79" s="14">
         <v>13</v>
@@ -2030,26 +2038,26 @@
         <v>9999</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F79" s="16"/>
     </row>
     <row r="80" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F80" s="16"/>
     </row>
     <row r="81" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B81" s="9">
         <v>2000</v>
@@ -2065,47 +2073,47 @@
         <v>20</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F82" s="16"/>
     </row>
     <row r="83" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C84" s="14">
         <v>14</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F84" s="16"/>
     </row>
     <row r="85" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C85" s="14">
         <v>14</v>
@@ -2114,26 +2122,26 @@
         <v>9999</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F85" s="16"/>
     </row>
     <row r="86" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F86" s="16"/>
     </row>
     <row r="87" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B87" s="9">
         <v>2000</v>
@@ -2149,47 +2157,47 @@
         <v>20</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F88" s="16"/>
     </row>
     <row r="89" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C90" s="14">
         <v>15</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F90" s="16"/>
     </row>
     <row r="91" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C91" s="14">
         <v>15</v>
@@ -2198,26 +2206,26 @@
         <v>9999</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F91" s="16"/>
     </row>
     <row r="92" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F92" s="16"/>
     </row>
     <row r="93" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B93" s="9">
         <v>2000</v>
@@ -2233,47 +2241,47 @@
         <v>20</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D94" s="21"/>
       <c r="E94" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F94" s="16"/>
     </row>
     <row r="95" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C96" s="14">
         <v>16</v>
       </c>
       <c r="D96" s="21"/>
       <c r="E96" s="14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F96" s="16"/>
     </row>
     <row r="97" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C97" s="14">
         <v>16</v>
@@ -2282,26 +2290,26 @@
         <v>9999</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F97" s="16"/>
     </row>
     <row r="98" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F98" s="16"/>
     </row>
     <row r="99" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B99" s="9">
         <v>2000</v>
@@ -2317,47 +2325,47 @@
         <v>20</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D100" s="21"/>
       <c r="E100" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F100" s="16"/>
     </row>
     <row r="101" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C102" s="14">
         <v>17</v>
       </c>
       <c r="D102" s="21"/>
       <c r="E102" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F102" s="16"/>
     </row>
     <row r="103" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C103" s="14">
         <v>17</v>
@@ -2366,26 +2374,26 @@
         <v>9999</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F103" s="16"/>
     </row>
     <row r="104" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D104" s="21"/>
       <c r="E104" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F104" s="16"/>
     </row>
     <row r="105" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B105" s="9">
         <v>2000</v>
@@ -2401,47 +2409,47 @@
         <v>20</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D106" s="21"/>
       <c r="E106" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F106" s="16"/>
     </row>
     <row r="107" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C108" s="14">
         <v>18</v>
       </c>
       <c r="D108" s="21"/>
       <c r="E108" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F108" s="16"/>
     </row>
     <row r="109" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C109" s="14">
         <v>18</v>
@@ -2450,20 +2458,20 @@
         <v>9999</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F109" s="16"/>
     </row>
     <row r="110" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D110" s="21"/>
       <c r="E110" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F110" s="16"/>
     </row>
@@ -2485,17 +2493,17 @@
         <v>20</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D112" s="21"/>
       <c r="E112" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F112" s="16"/>
     </row>
     <row r="113" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B113" s="15"/>
       <c r="D113" s="21"/>
@@ -2503,13 +2511,13 @@
     </row>
     <row r="114" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -2517,11 +2525,11 @@
         <v>20</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D115" s="25"/>
       <c r="E115" s="24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2566,27 +2574,27 @@
         <v>9</v>
       </c>
       <c r="D119" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F119" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="22" t="s">
-        <v>27</v>
+      <c r="D120" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>27</v>
+        <v>114</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -2594,27 +2602,27 @@
         <v>19</v>
       </c>
       <c r="B121" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F121" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C122" s="1">
         <v>0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2632,27 +2640,30 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>60</v>
+        <v>110</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>61</v>
+        <v>112</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C125" s="1">
         <v>4</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2673,11 +2684,11 @@
         <v>20</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D127" s="21"/>
       <c r="E127" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F127" s="16"/>
     </row>
@@ -2696,26 +2707,26 @@
     </row>
     <row r="129" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C129" s="14">
         <v>5</v>
       </c>
       <c r="D129" s="21"/>
       <c r="E129" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F129" s="16"/>
     </row>
     <row r="130" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C130" s="14">
         <v>5</v>
@@ -2724,7 +2735,7 @@
         <v>1001</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F130" s="16"/>
     </row>
@@ -2733,11 +2744,11 @@
         <v>20</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D131" s="21"/>
       <c r="E131" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F131" s="16"/>
     </row>
